--- a/Stat/Paper_Table/nqa.xlsx
+++ b/Stat/Paper_Table/nqa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,77 +501,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLIP2</t>
+          <t>InternLM-XComposer-v2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>37.48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>39.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>44.38</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>58.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>38.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>18.67</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>26.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>56.00</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>47.50</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>70.60</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>29.40</t>
         </is>
       </c>
     </row>
